--- a/database/data_to_add/added/2020-06-11/Hammar_1998_tbl2.xlsx
+++ b/database/data_to_add/added/2020-06-11/Hammar_1998_tbl2.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Project\Extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\added\2020-06-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{767EA341-68F9-4458-A095-C16365E2F617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DB2A8F-C400-4501-B41B-B224C10D0CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$21</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
     <t>site_name</t>
   </si>
@@ -232,9 +234,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,15 +282,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,15 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="17" width="13.7109375" customWidth="1"/>
+    <col min="25" max="30" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -656,22 +658,22 @@
       <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1"/>
@@ -680,75 +682,71 @@
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5">
-        <v>300</v>
-      </c>
-      <c r="F2" s="5">
-        <v>350</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5">
-        <v>9</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>1998</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
+      <c r="W2" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
         <v>100</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="2"/>
@@ -757,75 +755,75 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>200</v>
       </c>
-      <c r="F3" s="5">
-        <v>350</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
-        <v>232</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="F3" s="4">
+        <v>410</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>1998</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>23.9</v>
-      </c>
-      <c r="AD3" s="4">
+      <c r="W3" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>92.7</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="7">
         <v>0</v>
       </c>
       <c r="AE3" s="3"/>
@@ -835,1235 +833,1202 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E4">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="F4">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="K4">
-        <v>25</v>
-      </c>
-      <c r="O4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>1998</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>81.2</v>
-      </c>
-      <c r="AD4" s="4">
+      <c r="W4" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="AD4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F5">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="K5">
         <v>8</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>1998</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>66.5</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>33.5</v>
-      </c>
-      <c r="AD5" s="4">
+      <c r="W5" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>64.8</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="AD5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E6">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F6">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="K6">
-        <v>16</v>
-      </c>
-      <c r="O6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>1998</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>93.9</v>
-      </c>
-      <c r="AD6" s="4">
+      <c r="W6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>350</v>
+      </c>
       <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="O7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>1998</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W7" s="5">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
         <v>100</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F8">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="O8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>1998</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="5">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>92.7</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>0</v>
+      <c r="W8" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>53.3</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="5">
-        <v>166</v>
-      </c>
-      <c r="F9" s="5">
-        <v>341</v>
+      <c r="E9" s="4">
+        <v>198</v>
+      </c>
+      <c r="F9" s="4">
+        <v>470</v>
       </c>
       <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="O9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>1998</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W9" s="5">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>64.8</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>17</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="AD9" s="4">
+      <c r="W9" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>57.9</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>42.1</v>
+      </c>
+      <c r="AD9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="5">
-        <v>277</v>
-      </c>
-      <c r="F10" s="5">
-        <v>385</v>
+      <c r="E10" s="4">
+        <v>150</v>
+      </c>
+      <c r="F10" s="4">
+        <v>300</v>
       </c>
       <c r="K10">
-        <v>14</v>
-      </c>
-      <c r="O10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>1998</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="5">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>77.2</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="AD10" s="4">
+      <c r="W10" s="4">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>38.4</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>53.7</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="AD10" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="5">
-        <v>150</v>
-      </c>
-      <c r="F11" s="5">
-        <v>220</v>
+      <c r="E11" s="4">
+        <v>277</v>
+      </c>
+      <c r="F11" s="4">
+        <v>385</v>
       </c>
       <c r="K11">
-        <v>8</v>
-      </c>
-      <c r="O11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>1998</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="5">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD11" s="4">
+      <c r="W11" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AD11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="5">
-        <v>150</v>
-      </c>
-      <c r="F12" s="5">
-        <v>300</v>
+      <c r="E12" s="4">
+        <v>153</v>
+      </c>
+      <c r="F12" s="4">
+        <v>278</v>
       </c>
       <c r="K12">
-        <v>91</v>
-      </c>
-      <c r="O12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>1998</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="V12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W12" s="5">
-        <v>11</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>46.2</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>53.9</v>
-      </c>
-      <c r="AD12" s="4">
+      <c r="W12" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>93.9</v>
+      </c>
+      <c r="AD12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="5">
-        <v>164</v>
-      </c>
-      <c r="F13" s="5">
-        <v>195</v>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>300</v>
       </c>
       <c r="K13">
-        <v>237</v>
-      </c>
-      <c r="O13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>1998</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="V13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="5">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>31.1</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>0</v>
+      <c r="W13" s="4">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>97.7</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="5">
-        <v>198</v>
-      </c>
-      <c r="F14" s="5">
-        <v>470</v>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4">
+        <v>300</v>
       </c>
       <c r="K14">
-        <v>12</v>
-      </c>
-      <c r="O14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>1998</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W14" s="5">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>57.9</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>42.1</v>
-      </c>
-      <c r="AD14" s="4">
+      <c r="W14" s="4">
+        <v>17</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>78.2</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="AD14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="5">
-        <v>160</v>
-      </c>
-      <c r="F15" s="5">
-        <v>390</v>
+      <c r="E15" s="4">
+        <v>92</v>
+      </c>
+      <c r="F15" s="4">
+        <v>246</v>
       </c>
       <c r="K15">
-        <v>52</v>
-      </c>
-      <c r="O15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>1998</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W15" s="5">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>88.9</v>
+      <c r="W15" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>81.2</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="5">
-        <v>300</v>
-      </c>
-      <c r="F16" s="5">
-        <v>350</v>
+      <c r="E16" s="4">
+        <v>160</v>
+      </c>
+      <c r="F16" s="4">
+        <v>390</v>
       </c>
       <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="O16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5" t="s">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>1998</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W16" s="5">
-        <v>15</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="4">
-        <v>40</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>53.3</v>
+      <c r="W16" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>88.9</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="5">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17" s="4">
+        <v>150</v>
+      </c>
+      <c r="F17" s="4">
         <v>300</v>
       </c>
       <c r="K17">
-        <v>20</v>
-      </c>
-      <c r="O17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <v>1998</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W17" s="5">
-        <v>16</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>97.7</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>0.1</v>
+      <c r="W17" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>46.2</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>280</v>
+      </c>
+      <c r="K18">
         <v>100</v>
       </c>
-      <c r="F18">
-        <v>300</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>1998</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="5">
-        <v>17</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>78.2</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="AD18" s="4">
+      <c r="W18" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>96.7</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AD18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E19">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="F19">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="K19">
         <v>100</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>1998</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W19" s="5">
-        <v>18</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>96.7</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AD19" s="4">
+      <c r="W19" s="4">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>78.3</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AD19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E20">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F20">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K20">
-        <v>12</v>
-      </c>
-      <c r="O20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="4">
         <v>1998</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W20" s="5">
-        <v>19</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>38.4</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>53.7</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AD20" s="4">
+      <c r="W20" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="AD20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E21">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="F21">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="O21" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5" t="s">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <v>1998</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W21" s="5">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>14.9</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>78.3</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K22">
-        <v>30</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="5">
-        <v>1998</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="5">
-        <v>21</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>92.7</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AD22" s="4">
+      <c r="W21" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AD21" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD21" xr:uid="{794EFDB1-AFC4-45DD-864E-015335525248}">
+    <sortState ref="A2:AD21">
+      <sortCondition ref="K1:K21"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
